--- a/Lynx Apartment Tracker.xlsx
+++ b/Lynx Apartment Tracker.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,6 +2327,240 @@
         <v>2025</v>
       </c>
       <c r="V23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="19" t="n">
+        <v>46043</v>
+      </c>
+      <c r="B24" s="19" t="n">
+        <v>46046</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Gökhan Ay</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>104.76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="S24" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2026</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="19" t="n">
+        <v>46049</v>
+      </c>
+      <c r="B25" s="19" t="n">
+        <v>46063</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Merve Yaltalı</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Airbnb</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>14</v>
+      </c>
+      <c r="M25" t="n">
+        <v>539.08</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="S25" t="n">
+        <v>519.3099999999999</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2026</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="19" t="n">
+        <v>46067</v>
+      </c>
+      <c r="B26" s="19" t="n">
+        <v>46072</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Đurinac Branka</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>202.93</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="S26" t="n">
+        <v>183.16</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2026</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Lynx Apartment Tracker.xlsx
+++ b/Lynx Apartment Tracker.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2483,84 +2483,6 @@
         <v>2026</v>
       </c>
       <c r="V25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="n">
-        <v>46067</v>
-      </c>
-      <c r="B26" s="19" t="n">
-        <v>46072</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Đurinac Branka</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Booking</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>202.93</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5</v>
-      </c>
-      <c r="O26" t="n">
-        <v>5</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>6</v>
-      </c>
-      <c r="R26" t="n">
-        <v>19.77</v>
-      </c>
-      <c r="S26" t="n">
-        <v>183.16</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2026</v>
-      </c>
-      <c r="V26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Lynx Apartment Tracker.xlsx
+++ b/Lynx Apartment Tracker.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2456,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="M25" t="n">
-        <v>539.08</v>
+        <v>1054.84</v>
       </c>
       <c r="N25" t="n">
         <v>5</v>
@@ -2474,7 +2474,7 @@
         <v>19.77</v>
       </c>
       <c r="S25" t="n">
-        <v>519.3099999999999</v>
+        <v>1035.07</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
@@ -2483,6 +2483,84 @@
         <v>2026</v>
       </c>
       <c r="V25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="19" t="n">
+        <v>46095</v>
+      </c>
+      <c r="B26" s="19" t="n">
+        <v>46098</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Enikő Tóth</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>123.24</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="S26" t="n">
+        <v>103.47</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2026</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Lynx Apartment Tracker.xlsx
+++ b/Lynx Apartment Tracker.xlsx
@@ -2411,7 +2411,7 @@
         <v>46049</v>
       </c>
       <c r="B25" s="19" t="n">
-        <v>46063</v>
+        <v>46077</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M25" t="n">
         <v>1054.84</v>
